--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c204_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2036,10 +2048,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2083,28 +2095,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2129,28 +2141,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3280,10 +3292,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3327,28 +3339,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3373,28 +3385,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3511,10 +3523,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3558,28 +3570,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3604,28 +3616,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4235,10 +4247,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K142" s="2" t="s">
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4282,28 +4294,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4328,28 +4340,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4727,10 +4739,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="J159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4774,28 +4786,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4820,28 +4832,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5219,10 +5231,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
+      <c r="J176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
